--- a/Assets/Data/excel/伤害类型定义表.xlsx
+++ b/Assets/Data/excel/伤害类型定义表.xlsx
@@ -60,7 +60,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色名</t>
+    <t>是否引起流血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤口大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CauseBleed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -68,23 +80,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刺伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>割伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钝伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ignore</t>
+    <t>WoundSize</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -92,15 +88,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CauseBleed</t>
+    <t>Pierce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否引起流血</t>
+    <t>Cut</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无视护甲</t>
+    <t>Blunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,13 +769,12 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="9" customWidth="1"/>
+    <col min="1" max="3" width="10.375" style="9" customWidth="1"/>
     <col min="4" max="4" width="12" style="11" customWidth="1"/>
     <col min="5" max="8" width="4.75" style="11" customWidth="1"/>
     <col min="9" max="9" width="26.875" style="11" customWidth="1"/>
@@ -818,13 +817,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -886,13 +885,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -925,7 +924,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>0</v>
@@ -1044,9 +1043,11 @@
     <row r="9" spans="1:26" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="17">
+        <v>1</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -1074,9 +1075,11 @@
     <row r="10" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="17">
+        <v>2</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
@@ -1104,9 +1107,11 @@
     <row r="11" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20"/>
       <c r="B11" s="20" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="20">
+        <v>2</v>
+      </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
@@ -1134,9 +1139,11 @@
     <row r="12" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20">
+        <v>1</v>
+      </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
